--- a/materials/Modulverlauf.xlsx
+++ b/materials/Modulverlauf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/datascience1/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F1E693-51B1-2440-AB87-E071B5EAB6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F286D45D-8391-AD43-A33B-9CC3D06DD083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Nr</t>
   </si>
@@ -154,10 +154,13 @@
     <t>Fallstudien bei Kaggle</t>
   </si>
   <si>
-    <t>Der rote Faden</t>
-  </si>
-  <si>
-    <t>Dimensionsreduktion</t>
+    <t>Praktische Übungen</t>
+  </si>
+  <si>
+    <t>Rollenspiel, Skill Set</t>
+  </si>
+  <si>
+    <t>Abschluss</t>
   </si>
 </sst>
 </file>
@@ -725,10 +728,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -736,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>

--- a/materials/Modulverlauf.xlsx
+++ b/materials/Modulverlauf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/datascience1/materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F286D45D-8391-AD43-A33B-9CC3D06DD083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C29522F-4634-3944-8EAD-318BF09559FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>26.6. - 2.7.</t>
   </si>
   <si>
-    <t>Letzter Lehrtag ist Fr., 30.6.</t>
-  </si>
-  <si>
     <t>Lehrbeginn ist am Mi., 15.3.23</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Abschluss</t>
+  </si>
+  <si>
+    <t>Sonstige Leistung, Semesterkonferenz, letzter Lehrtag ist Fr., 30.6.</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -553,13 +553,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -567,7 +567,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -578,7 +578,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -589,13 +589,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -603,13 +603,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -617,7 +617,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -628,7 +628,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -639,13 +639,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -653,7 +653,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -664,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -675,13 +675,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -689,13 +689,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -703,13 +703,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -717,7 +717,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -728,13 +728,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -742,13 +742,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
